--- a/rcads/data/xls/32_CodebookOptionMap.xlsx
+++ b/rcads/data/xls/32_CodebookOptionMap.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_32_CodebookOptionMap"/>
   </sheets>
   <definedNames>
-    <definedName name="_32_CodebookOptionMap">'_32_CodebookOptionMap'!$A$1:$F$121</definedName>
+    <definedName name="_32_CodebookOptionMap">'_32_CodebookOptionMap'!$A$1:$E$133</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -364,20 +364,15 @@
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>CodebookLanguage</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
           <t>OptionID</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>OptionPosition</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>OptionValue</t>
         </is>
@@ -391,15 +386,12 @@
         <v>26</v>
       </c>
       <c r="C2" s="0">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="D2" s="0">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0">
         <v>0</v>
       </c>
     </row>
@@ -411,15 +403,12 @@
         <v>26</v>
       </c>
       <c r="C3" s="0">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D3" s="0">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="E3" s="0">
-        <v>2</v>
-      </c>
-      <c r="F3" s="0">
         <v>1</v>
       </c>
     </row>
@@ -431,15 +420,12 @@
         <v>26</v>
       </c>
       <c r="C4" s="0">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="D4" s="0">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="E4" s="0">
-        <v>3</v>
-      </c>
-      <c r="F4" s="0">
         <v>2</v>
       </c>
     </row>
@@ -451,15 +437,12 @@
         <v>26</v>
       </c>
       <c r="C5" s="0">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="D5" s="0">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0">
-        <v>4</v>
-      </c>
-      <c r="F5" s="0">
         <v>3</v>
       </c>
     </row>
@@ -471,15 +454,12 @@
         <v>27</v>
       </c>
       <c r="C6" s="0">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="D6" s="0">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0">
         <v>0</v>
       </c>
     </row>
@@ -491,15 +471,12 @@
         <v>27</v>
       </c>
       <c r="C7" s="0">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="D7" s="0">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="E7" s="0">
-        <v>2</v>
-      </c>
-      <c r="F7" s="0">
         <v>1</v>
       </c>
     </row>
@@ -511,15 +488,12 @@
         <v>27</v>
       </c>
       <c r="C8" s="0">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="D8" s="0">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="E8" s="0">
-        <v>3</v>
-      </c>
-      <c r="F8" s="0">
         <v>2</v>
       </c>
     </row>
@@ -531,15 +505,12 @@
         <v>27</v>
       </c>
       <c r="C9" s="0">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="D9" s="0">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0">
-        <v>4</v>
-      </c>
-      <c r="F9" s="0">
         <v>3</v>
       </c>
     </row>
@@ -557,9 +528,6 @@
         <v>1</v>
       </c>
       <c r="E10" s="0">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0">
         <v>0</v>
       </c>
     </row>
@@ -571,15 +539,12 @@
         <v>1</v>
       </c>
       <c r="C11" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0">
-        <v>2</v>
-      </c>
-      <c r="F11" s="0">
         <v>1</v>
       </c>
     </row>
@@ -591,15 +556,12 @@
         <v>1</v>
       </c>
       <c r="C12" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="0">
         <v>3</v>
       </c>
       <c r="E12" s="0">
-        <v>3</v>
-      </c>
-      <c r="F12" s="0">
         <v>2</v>
       </c>
     </row>
@@ -611,15 +573,12 @@
         <v>1</v>
       </c>
       <c r="C13" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="0">
         <v>4</v>
       </c>
       <c r="E13" s="0">
-        <v>4</v>
-      </c>
-      <c r="F13" s="0">
         <v>3</v>
       </c>
     </row>
@@ -631,15 +590,12 @@
         <v>2</v>
       </c>
       <c r="C14" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0">
         <v>0</v>
       </c>
     </row>
@@ -651,15 +607,12 @@
         <v>2</v>
       </c>
       <c r="C15" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D15" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15" s="0">
-        <v>2</v>
-      </c>
-      <c r="F15" s="0">
         <v>1</v>
       </c>
     </row>
@@ -671,15 +624,12 @@
         <v>2</v>
       </c>
       <c r="C16" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D16" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E16" s="0">
-        <v>3</v>
-      </c>
-      <c r="F16" s="0">
         <v>2</v>
       </c>
     </row>
@@ -691,15 +641,12 @@
         <v>2</v>
       </c>
       <c r="C17" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D17" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E17" s="0">
-        <v>4</v>
-      </c>
-      <c r="F17" s="0">
         <v>3</v>
       </c>
     </row>
@@ -711,15 +658,12 @@
         <v>3</v>
       </c>
       <c r="C18" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D18" s="0">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E18" s="0">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0">
         <v>0</v>
       </c>
     </row>
@@ -731,15 +675,12 @@
         <v>3</v>
       </c>
       <c r="C19" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D19" s="0">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E19" s="0">
-        <v>2</v>
-      </c>
-      <c r="F19" s="0">
         <v>1</v>
       </c>
     </row>
@@ -751,15 +692,12 @@
         <v>3</v>
       </c>
       <c r="C20" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D20" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E20" s="0">
-        <v>3</v>
-      </c>
-      <c r="F20" s="0">
         <v>2</v>
       </c>
     </row>
@@ -771,15 +709,12 @@
         <v>3</v>
       </c>
       <c r="C21" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D21" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E21" s="0">
-        <v>4</v>
-      </c>
-      <c r="F21" s="0">
         <v>3</v>
       </c>
     </row>
@@ -791,15 +726,12 @@
         <v>4</v>
       </c>
       <c r="C22" s="0">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D22" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E22" s="0">
-        <v>1</v>
-      </c>
-      <c r="F22" s="0">
         <v>0</v>
       </c>
     </row>
@@ -811,15 +743,12 @@
         <v>4</v>
       </c>
       <c r="C23" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D23" s="0">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E23" s="0">
-        <v>2</v>
-      </c>
-      <c r="F23" s="0">
         <v>1</v>
       </c>
     </row>
@@ -831,15 +760,12 @@
         <v>4</v>
       </c>
       <c r="C24" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D24" s="0">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E24" s="0">
-        <v>3</v>
-      </c>
-      <c r="F24" s="0">
         <v>2</v>
       </c>
     </row>
@@ -851,15 +777,12 @@
         <v>4</v>
       </c>
       <c r="C25" s="0">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D25" s="0">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E25" s="0">
-        <v>4</v>
-      </c>
-      <c r="F25" s="0">
         <v>3</v>
       </c>
     </row>
@@ -871,15 +794,12 @@
         <v>5</v>
       </c>
       <c r="C26" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D26" s="0">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E26" s="0">
-        <v>1</v>
-      </c>
-      <c r="F26" s="0">
         <v>0</v>
       </c>
     </row>
@@ -891,15 +811,12 @@
         <v>5</v>
       </c>
       <c r="C27" s="0">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D27" s="0">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E27" s="0">
-        <v>2</v>
-      </c>
-      <c r="F27" s="0">
         <v>1</v>
       </c>
     </row>
@@ -911,15 +828,12 @@
         <v>5</v>
       </c>
       <c r="C28" s="0">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D28" s="0">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E28" s="0">
-        <v>3</v>
-      </c>
-      <c r="F28" s="0">
         <v>2</v>
       </c>
     </row>
@@ -931,15 +845,12 @@
         <v>5</v>
       </c>
       <c r="C29" s="0">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D29" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E29" s="0">
-        <v>4</v>
-      </c>
-      <c r="F29" s="0">
         <v>3</v>
       </c>
     </row>
@@ -951,15 +862,12 @@
         <v>6</v>
       </c>
       <c r="C30" s="0">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D30" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E30" s="0">
-        <v>1</v>
-      </c>
-      <c r="F30" s="0">
         <v>0</v>
       </c>
     </row>
@@ -971,15 +879,12 @@
         <v>6</v>
       </c>
       <c r="C31" s="0">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D31" s="0">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E31" s="0">
-        <v>2</v>
-      </c>
-      <c r="F31" s="0">
         <v>1</v>
       </c>
     </row>
@@ -991,15 +896,12 @@
         <v>6</v>
       </c>
       <c r="C32" s="0">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D32" s="0">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E32" s="0">
-        <v>3</v>
-      </c>
-      <c r="F32" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1011,15 +913,12 @@
         <v>6</v>
       </c>
       <c r="C33" s="0">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D33" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E33" s="0">
-        <v>4</v>
-      </c>
-      <c r="F33" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1031,15 +930,12 @@
         <v>7</v>
       </c>
       <c r="C34" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D34" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E34" s="0">
-        <v>1</v>
-      </c>
-      <c r="F34" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1051,15 +947,12 @@
         <v>7</v>
       </c>
       <c r="C35" s="0">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D35" s="0">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E35" s="0">
-        <v>2</v>
-      </c>
-      <c r="F35" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1071,15 +964,12 @@
         <v>7</v>
       </c>
       <c r="C36" s="0">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D36" s="0">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E36" s="0">
-        <v>3</v>
-      </c>
-      <c r="F36" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1091,15 +981,12 @@
         <v>7</v>
       </c>
       <c r="C37" s="0">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D37" s="0">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E37" s="0">
-        <v>4</v>
-      </c>
-      <c r="F37" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1111,15 +998,12 @@
         <v>8</v>
       </c>
       <c r="C38" s="0">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D38" s="0">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E38" s="0">
-        <v>1</v>
-      </c>
-      <c r="F38" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1131,15 +1015,12 @@
         <v>8</v>
       </c>
       <c r="C39" s="0">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D39" s="0">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E39" s="0">
-        <v>2</v>
-      </c>
-      <c r="F39" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1151,15 +1032,12 @@
         <v>8</v>
       </c>
       <c r="C40" s="0">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D40" s="0">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E40" s="0">
-        <v>3</v>
-      </c>
-      <c r="F40" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1171,15 +1049,12 @@
         <v>8</v>
       </c>
       <c r="C41" s="0">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D41" s="0">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E41" s="0">
-        <v>4</v>
-      </c>
-      <c r="F41" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1191,15 +1066,12 @@
         <v>9</v>
       </c>
       <c r="C42" s="0">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D42" s="0">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E42" s="0">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1211,15 +1083,12 @@
         <v>9</v>
       </c>
       <c r="C43" s="0">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D43" s="0">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E43" s="0">
-        <v>2</v>
-      </c>
-      <c r="F43" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1231,15 +1100,12 @@
         <v>9</v>
       </c>
       <c r="C44" s="0">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D44" s="0">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E44" s="0">
-        <v>3</v>
-      </c>
-      <c r="F44" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1251,15 +1117,12 @@
         <v>9</v>
       </c>
       <c r="C45" s="0">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D45" s="0">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E45" s="0">
-        <v>4</v>
-      </c>
-      <c r="F45" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1271,15 +1134,12 @@
         <v>10</v>
       </c>
       <c r="C46" s="0">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D46" s="0">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E46" s="0">
-        <v>1</v>
-      </c>
-      <c r="F46" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1291,15 +1151,12 @@
         <v>10</v>
       </c>
       <c r="C47" s="0">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D47" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E47" s="0">
-        <v>2</v>
-      </c>
-      <c r="F47" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1311,15 +1168,12 @@
         <v>10</v>
       </c>
       <c r="C48" s="0">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D48" s="0">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E48" s="0">
-        <v>3</v>
-      </c>
-      <c r="F48" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1331,15 +1185,12 @@
         <v>10</v>
       </c>
       <c r="C49" s="0">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D49" s="0">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E49" s="0">
-        <v>4</v>
-      </c>
-      <c r="F49" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1351,15 +1202,12 @@
         <v>11</v>
       </c>
       <c r="C50" s="0">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D50" s="0">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E50" s="0">
-        <v>1</v>
-      </c>
-      <c r="F50" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1371,15 +1219,12 @@
         <v>11</v>
       </c>
       <c r="C51" s="0">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D51" s="0">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E51" s="0">
-        <v>2</v>
-      </c>
-      <c r="F51" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1391,15 +1236,12 @@
         <v>11</v>
       </c>
       <c r="C52" s="0">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D52" s="0">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="E52" s="0">
-        <v>3</v>
-      </c>
-      <c r="F52" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1411,15 +1253,12 @@
         <v>11</v>
       </c>
       <c r="C53" s="0">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D53" s="0">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E53" s="0">
-        <v>4</v>
-      </c>
-      <c r="F53" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1431,15 +1270,12 @@
         <v>12</v>
       </c>
       <c r="C54" s="0">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D54" s="0">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E54" s="0">
-        <v>1</v>
-      </c>
-      <c r="F54" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1451,15 +1287,12 @@
         <v>12</v>
       </c>
       <c r="C55" s="0">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D55" s="0">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E55" s="0">
-        <v>2</v>
-      </c>
-      <c r="F55" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1471,15 +1304,12 @@
         <v>12</v>
       </c>
       <c r="C56" s="0">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D56" s="0">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E56" s="0">
-        <v>3</v>
-      </c>
-      <c r="F56" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1491,15 +1321,12 @@
         <v>12</v>
       </c>
       <c r="C57" s="0">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D57" s="0">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E57" s="0">
-        <v>4</v>
-      </c>
-      <c r="F57" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1511,15 +1338,12 @@
         <v>13</v>
       </c>
       <c r="C58" s="0">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D58" s="0">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E58" s="0">
-        <v>1</v>
-      </c>
-      <c r="F58" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1531,15 +1355,12 @@
         <v>13</v>
       </c>
       <c r="C59" s="0">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D59" s="0">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E59" s="0">
-        <v>2</v>
-      </c>
-      <c r="F59" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1551,15 +1372,12 @@
         <v>13</v>
       </c>
       <c r="C60" s="0">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D60" s="0">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E60" s="0">
-        <v>3</v>
-      </c>
-      <c r="F60" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1571,15 +1389,12 @@
         <v>13</v>
       </c>
       <c r="C61" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D61" s="0">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E61" s="0">
-        <v>4</v>
-      </c>
-      <c r="F61" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1591,15 +1406,12 @@
         <v>14</v>
       </c>
       <c r="C62" s="0">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D62" s="0">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E62" s="0">
-        <v>1</v>
-      </c>
-      <c r="F62" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1611,15 +1423,12 @@
         <v>14</v>
       </c>
       <c r="C63" s="0">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D63" s="0">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="E63" s="0">
-        <v>2</v>
-      </c>
-      <c r="F63" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1631,15 +1440,12 @@
         <v>14</v>
       </c>
       <c r="C64" s="0">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D64" s="0">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="E64" s="0">
-        <v>3</v>
-      </c>
-      <c r="F64" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1651,15 +1457,12 @@
         <v>14</v>
       </c>
       <c r="C65" s="0">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D65" s="0">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="E65" s="0">
-        <v>4</v>
-      </c>
-      <c r="F65" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1671,15 +1474,12 @@
         <v>15</v>
       </c>
       <c r="C66" s="0">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D66" s="0">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E66" s="0">
-        <v>1</v>
-      </c>
-      <c r="F66" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1691,15 +1491,12 @@
         <v>15</v>
       </c>
       <c r="C67" s="0">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D67" s="0">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="E67" s="0">
-        <v>2</v>
-      </c>
-      <c r="F67" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1711,15 +1508,12 @@
         <v>15</v>
       </c>
       <c r="C68" s="0">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D68" s="0">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="E68" s="0">
-        <v>3</v>
-      </c>
-      <c r="F68" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1731,15 +1525,12 @@
         <v>15</v>
       </c>
       <c r="C69" s="0">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D69" s="0">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E69" s="0">
-        <v>4</v>
-      </c>
-      <c r="F69" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1751,15 +1542,12 @@
         <v>16</v>
       </c>
       <c r="C70" s="0">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D70" s="0">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E70" s="0">
-        <v>1</v>
-      </c>
-      <c r="F70" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1771,15 +1559,12 @@
         <v>16</v>
       </c>
       <c r="C71" s="0">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D71" s="0">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E71" s="0">
-        <v>2</v>
-      </c>
-      <c r="F71" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1791,15 +1576,12 @@
         <v>16</v>
       </c>
       <c r="C72" s="0">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D72" s="0">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E72" s="0">
-        <v>3</v>
-      </c>
-      <c r="F72" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1811,15 +1593,12 @@
         <v>16</v>
       </c>
       <c r="C73" s="0">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D73" s="0">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E73" s="0">
-        <v>4</v>
-      </c>
-      <c r="F73" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1831,15 +1610,12 @@
         <v>17</v>
       </c>
       <c r="C74" s="0">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D74" s="0">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E74" s="0">
-        <v>1</v>
-      </c>
-      <c r="F74" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1851,15 +1627,12 @@
         <v>17</v>
       </c>
       <c r="C75" s="0">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D75" s="0">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="E75" s="0">
-        <v>2</v>
-      </c>
-      <c r="F75" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1871,15 +1644,12 @@
         <v>17</v>
       </c>
       <c r="C76" s="0">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D76" s="0">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E76" s="0">
-        <v>3</v>
-      </c>
-      <c r="F76" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1891,15 +1661,12 @@
         <v>17</v>
       </c>
       <c r="C77" s="0">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D77" s="0">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E77" s="0">
-        <v>4</v>
-      </c>
-      <c r="F77" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1911,15 +1678,12 @@
         <v>18</v>
       </c>
       <c r="C78" s="0">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D78" s="0">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="E78" s="0">
-        <v>1</v>
-      </c>
-      <c r="F78" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1931,15 +1695,12 @@
         <v>18</v>
       </c>
       <c r="C79" s="0">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D79" s="0">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E79" s="0">
-        <v>2</v>
-      </c>
-      <c r="F79" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1951,15 +1712,12 @@
         <v>18</v>
       </c>
       <c r="C80" s="0">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D80" s="0">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="E80" s="0">
-        <v>3</v>
-      </c>
-      <c r="F80" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1971,15 +1729,12 @@
         <v>18</v>
       </c>
       <c r="C81" s="0">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D81" s="0">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E81" s="0">
-        <v>4</v>
-      </c>
-      <c r="F81" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1991,15 +1746,12 @@
         <v>19</v>
       </c>
       <c r="C82" s="0">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D82" s="0">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="E82" s="0">
-        <v>1</v>
-      </c>
-      <c r="F82" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2011,15 +1763,12 @@
         <v>19</v>
       </c>
       <c r="C83" s="0">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D83" s="0">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="E83" s="0">
-        <v>2</v>
-      </c>
-      <c r="F83" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2031,15 +1780,12 @@
         <v>19</v>
       </c>
       <c r="C84" s="0">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D84" s="0">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E84" s="0">
-        <v>3</v>
-      </c>
-      <c r="F84" s="0">
         <v>2</v>
       </c>
     </row>
@@ -2051,15 +1797,12 @@
         <v>19</v>
       </c>
       <c r="C85" s="0">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="D85" s="0">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="E85" s="0">
-        <v>4</v>
-      </c>
-      <c r="F85" s="0">
         <v>3</v>
       </c>
     </row>
@@ -2071,15 +1814,12 @@
         <v>20</v>
       </c>
       <c r="C86" s="0">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D86" s="0">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="E86" s="0">
-        <v>1</v>
-      </c>
-      <c r="F86" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2091,15 +1831,12 @@
         <v>20</v>
       </c>
       <c r="C87" s="0">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D87" s="0">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="E87" s="0">
-        <v>2</v>
-      </c>
-      <c r="F87" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2111,15 +1848,12 @@
         <v>20</v>
       </c>
       <c r="C88" s="0">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D88" s="0">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="E88" s="0">
-        <v>3</v>
-      </c>
-      <c r="F88" s="0">
         <v>2</v>
       </c>
     </row>
@@ -2131,15 +1865,12 @@
         <v>20</v>
       </c>
       <c r="C89" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D89" s="0">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E89" s="0">
-        <v>4</v>
-      </c>
-      <c r="F89" s="0">
         <v>3</v>
       </c>
     </row>
@@ -2151,15 +1882,12 @@
         <v>21</v>
       </c>
       <c r="C90" s="0">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="D90" s="0">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="E90" s="0">
-        <v>1</v>
-      </c>
-      <c r="F90" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2171,15 +1899,12 @@
         <v>21</v>
       </c>
       <c r="C91" s="0">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="D91" s="0">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="E91" s="0">
-        <v>2</v>
-      </c>
-      <c r="F91" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2191,15 +1916,12 @@
         <v>21</v>
       </c>
       <c r="C92" s="0">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D92" s="0">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="E92" s="0">
-        <v>3</v>
-      </c>
-      <c r="F92" s="0">
         <v>2</v>
       </c>
     </row>
@@ -2211,15 +1933,12 @@
         <v>21</v>
       </c>
       <c r="C93" s="0">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="D93" s="0">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E93" s="0">
-        <v>4</v>
-      </c>
-      <c r="F93" s="0">
         <v>3</v>
       </c>
     </row>
@@ -2231,15 +1950,12 @@
         <v>22</v>
       </c>
       <c r="C94" s="0">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="D94" s="0">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E94" s="0">
-        <v>1</v>
-      </c>
-      <c r="F94" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2251,15 +1967,12 @@
         <v>22</v>
       </c>
       <c r="C95" s="0">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="D95" s="0">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="E95" s="0">
-        <v>2</v>
-      </c>
-      <c r="F95" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2271,15 +1984,12 @@
         <v>22</v>
       </c>
       <c r="C96" s="0">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D96" s="0">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E96" s="0">
-        <v>3</v>
-      </c>
-      <c r="F96" s="0">
         <v>2</v>
       </c>
     </row>
@@ -2291,15 +2001,12 @@
         <v>22</v>
       </c>
       <c r="C97" s="0">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="D97" s="0">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="E97" s="0">
-        <v>4</v>
-      </c>
-      <c r="F97" s="0">
         <v>3</v>
       </c>
     </row>
@@ -2311,15 +2018,12 @@
         <v>23</v>
       </c>
       <c r="C98" s="0">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="D98" s="0">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="E98" s="0">
-        <v>1</v>
-      </c>
-      <c r="F98" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2331,15 +2035,12 @@
         <v>23</v>
       </c>
       <c r="C99" s="0">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D99" s="0">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="E99" s="0">
-        <v>2</v>
-      </c>
-      <c r="F99" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2351,15 +2052,12 @@
         <v>23</v>
       </c>
       <c r="C100" s="0">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D100" s="0">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="E100" s="0">
-        <v>3</v>
-      </c>
-      <c r="F100" s="0">
         <v>2</v>
       </c>
     </row>
@@ -2371,15 +2069,12 @@
         <v>23</v>
       </c>
       <c r="C101" s="0">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="D101" s="0">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="E101" s="0">
-        <v>4</v>
-      </c>
-      <c r="F101" s="0">
         <v>3</v>
       </c>
     </row>
@@ -2391,15 +2086,12 @@
         <v>24</v>
       </c>
       <c r="C102" s="0">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D102" s="0">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="E102" s="0">
-        <v>1</v>
-      </c>
-      <c r="F102" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2411,15 +2103,12 @@
         <v>24</v>
       </c>
       <c r="C103" s="0">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="D103" s="0">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="E103" s="0">
-        <v>2</v>
-      </c>
-      <c r="F103" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2431,15 +2120,12 @@
         <v>24</v>
       </c>
       <c r="C104" s="0">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D104" s="0">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E104" s="0">
-        <v>3</v>
-      </c>
-      <c r="F104" s="0">
         <v>2</v>
       </c>
     </row>
@@ -2451,15 +2137,12 @@
         <v>24</v>
       </c>
       <c r="C105" s="0">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D105" s="0">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="E105" s="0">
-        <v>4</v>
-      </c>
-      <c r="F105" s="0">
         <v>3</v>
       </c>
     </row>
@@ -2471,15 +2154,12 @@
         <v>25</v>
       </c>
       <c r="C106" s="0">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D106" s="0">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="E106" s="0">
-        <v>1</v>
-      </c>
-      <c r="F106" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2491,15 +2171,12 @@
         <v>25</v>
       </c>
       <c r="C107" s="0">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D107" s="0">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="E107" s="0">
-        <v>2</v>
-      </c>
-      <c r="F107" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2511,15 +2188,12 @@
         <v>25</v>
       </c>
       <c r="C108" s="0">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D108" s="0">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="E108" s="0">
-        <v>3</v>
-      </c>
-      <c r="F108" s="0">
         <v>2</v>
       </c>
     </row>
@@ -2531,15 +2205,12 @@
         <v>25</v>
       </c>
       <c r="C109" s="0">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D109" s="0">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E109" s="0">
-        <v>4</v>
-      </c>
-      <c r="F109" s="0">
         <v>3</v>
       </c>
     </row>
@@ -2551,15 +2222,12 @@
         <v>28</v>
       </c>
       <c r="C110" s="0">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D110" s="0">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="E110" s="0">
-        <v>1</v>
-      </c>
-      <c r="F110" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2571,15 +2239,12 @@
         <v>28</v>
       </c>
       <c r="C111" s="0">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="D111" s="0">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E111" s="0">
-        <v>2</v>
-      </c>
-      <c r="F111" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2591,15 +2256,12 @@
         <v>28</v>
       </c>
       <c r="C112" s="0">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="D112" s="0">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="E112" s="0">
-        <v>3</v>
-      </c>
-      <c r="F112" s="0">
         <v>2</v>
       </c>
     </row>
@@ -2611,15 +2273,12 @@
         <v>28</v>
       </c>
       <c r="C113" s="0">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="D113" s="0">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="E113" s="0">
-        <v>4</v>
-      </c>
-      <c r="F113" s="0">
         <v>3</v>
       </c>
     </row>
@@ -2631,15 +2290,12 @@
         <v>29</v>
       </c>
       <c r="C114" s="0">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="D114" s="0">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E114" s="0">
-        <v>1</v>
-      </c>
-      <c r="F114" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2651,15 +2307,12 @@
         <v>29</v>
       </c>
       <c r="C115" s="0">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="D115" s="0">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="E115" s="0">
-        <v>2</v>
-      </c>
-      <c r="F115" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2671,15 +2324,12 @@
         <v>29</v>
       </c>
       <c r="C116" s="0">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="D116" s="0">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E116" s="0">
-        <v>3</v>
-      </c>
-      <c r="F116" s="0">
         <v>2</v>
       </c>
     </row>
@@ -2691,15 +2341,12 @@
         <v>29</v>
       </c>
       <c r="C117" s="0">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D117" s="0">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="E117" s="0">
-        <v>4</v>
-      </c>
-      <c r="F117" s="0">
         <v>3</v>
       </c>
     </row>
@@ -2711,15 +2358,12 @@
         <v>30</v>
       </c>
       <c r="C118" s="0">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D118" s="0">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="E118" s="0">
-        <v>1</v>
-      </c>
-      <c r="F118" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2731,15 +2375,12 @@
         <v>30</v>
       </c>
       <c r="C119" s="0">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D119" s="0">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="E119" s="0">
-        <v>2</v>
-      </c>
-      <c r="F119" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2751,15 +2392,12 @@
         <v>30</v>
       </c>
       <c r="C120" s="0">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D120" s="0">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="E120" s="0">
-        <v>3</v>
-      </c>
-      <c r="F120" s="0">
         <v>2</v>
       </c>
     </row>
@@ -2771,15 +2409,216 @@
         <v>30</v>
       </c>
       <c r="C121" s="0">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="D121" s="0">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E121" s="0">
-        <v>4</v>
-      </c>
-      <c r="F121" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="0">
+        <v>121</v>
+      </c>
+      <c r="B122" s="0">
+        <v>31</v>
+      </c>
+      <c r="C122" s="0">
+        <v>123</v>
+      </c>
+      <c r="D122" s="0">
+        <v>1</v>
+      </c>
+      <c r="E122" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="0">
+        <v>122</v>
+      </c>
+      <c r="B123" s="0">
+        <v>31</v>
+      </c>
+      <c r="C123" s="0">
+        <v>124</v>
+      </c>
+      <c r="D123" s="0">
+        <v>2</v>
+      </c>
+      <c r="E123" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="0">
+        <v>123</v>
+      </c>
+      <c r="B124" s="0">
+        <v>31</v>
+      </c>
+      <c r="C124" s="0">
+        <v>125</v>
+      </c>
+      <c r="D124" s="0">
+        <v>3</v>
+      </c>
+      <c r="E124" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="0">
+        <v>124</v>
+      </c>
+      <c r="B125" s="0">
+        <v>31</v>
+      </c>
+      <c r="C125" s="0">
+        <v>130</v>
+      </c>
+      <c r="D125" s="0">
+        <v>4</v>
+      </c>
+      <c r="E125" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="0">
+        <v>125</v>
+      </c>
+      <c r="B126" s="0">
+        <v>32</v>
+      </c>
+      <c r="C126" s="0">
+        <v>123</v>
+      </c>
+      <c r="D126" s="0">
+        <v>1</v>
+      </c>
+      <c r="E126" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="0">
+        <v>126</v>
+      </c>
+      <c r="B127" s="0">
+        <v>32</v>
+      </c>
+      <c r="C127" s="0">
+        <v>124</v>
+      </c>
+      <c r="D127" s="0">
+        <v>2</v>
+      </c>
+      <c r="E127" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="0">
+        <v>127</v>
+      </c>
+      <c r="B128" s="0">
+        <v>32</v>
+      </c>
+      <c r="C128" s="0">
+        <v>125</v>
+      </c>
+      <c r="D128" s="0">
+        <v>3</v>
+      </c>
+      <c r="E128" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="0">
+        <v>128</v>
+      </c>
+      <c r="B129" s="0">
+        <v>32</v>
+      </c>
+      <c r="C129" s="0">
+        <v>126</v>
+      </c>
+      <c r="D129" s="0">
+        <v>4</v>
+      </c>
+      <c r="E129" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="130">
+      <c r="A130" s="0">
+        <v>129</v>
+      </c>
+      <c r="B130" s="0">
+        <v>33</v>
+      </c>
+      <c r="C130" s="0">
+        <v>127</v>
+      </c>
+      <c r="D130" s="0">
+        <v>1</v>
+      </c>
+      <c r="E130" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="0">
+        <v>130</v>
+      </c>
+      <c r="B131" s="0">
+        <v>33</v>
+      </c>
+      <c r="C131" s="0">
+        <v>128</v>
+      </c>
+      <c r="D131" s="0">
+        <v>2</v>
+      </c>
+      <c r="E131" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="0">
+        <v>131</v>
+      </c>
+      <c r="B132" s="0">
+        <v>33</v>
+      </c>
+      <c r="C132" s="0">
+        <v>129</v>
+      </c>
+      <c r="D132" s="0">
+        <v>3</v>
+      </c>
+      <c r="E132" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="0">
+        <v>132</v>
+      </c>
+      <c r="B133" s="0">
+        <v>33</v>
+      </c>
+      <c r="C133" s="0">
+        <v>131</v>
+      </c>
+      <c r="D133" s="0">
+        <v>4</v>
+      </c>
+      <c r="E133" s="0">
         <v>3</v>
       </c>
     </row>

--- a/rcads/data/xls/32_CodebookOptionMap.xlsx
+++ b/rcads/data/xls/32_CodebookOptionMap.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_32_CodebookOptionMap"/>
   </sheets>
   <definedNames>
-    <definedName name="_32_CodebookOptionMap">'_32_CodebookOptionMap'!$A$1:$E$133</definedName>
+    <definedName name="_32_CodebookOptionMap">'_32_CodebookOptionMap'!$A$1:$E$134</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2622,6 +2622,20 @@
         <v>3</v>
       </c>
     </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="0">
+        <v>133</v>
+      </c>
+      <c r="B134" s="0">
+        <v>34</v>
+      </c>
+      <c r="D134" s="0">
+        <v>0</v>
+      </c>
+      <c r="E134" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/32_CodebookOptionMap.xlsx
+++ b/rcads/data/xls/32_CodebookOptionMap.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_32_CodebookOptionMap"/>
   </sheets>
   <definedNames>
-    <definedName name="_32_CodebookOptionMap">'_32_CodebookOptionMap'!$A$1:$E$134</definedName>
+    <definedName name="_32_CodebookOptionMap">'_32_CodebookOptionMap'!$A$1:$E$138</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2636,6 +2636,74 @@
         <v>0</v>
       </c>
     </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="0">
+        <v>134</v>
+      </c>
+      <c r="B135" s="0">
+        <v>35</v>
+      </c>
+      <c r="C135" s="0">
+        <v>136</v>
+      </c>
+      <c r="D135" s="0">
+        <v>1</v>
+      </c>
+      <c r="E135" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="0">
+        <v>135</v>
+      </c>
+      <c r="B136" s="0">
+        <v>35</v>
+      </c>
+      <c r="C136" s="0">
+        <v>137</v>
+      </c>
+      <c r="D136" s="0">
+        <v>2</v>
+      </c>
+      <c r="E136" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="0">
+        <v>136</v>
+      </c>
+      <c r="B137" s="0">
+        <v>35</v>
+      </c>
+      <c r="C137" s="0">
+        <v>138</v>
+      </c>
+      <c r="D137" s="0">
+        <v>3</v>
+      </c>
+      <c r="E137" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="0">
+        <v>137</v>
+      </c>
+      <c r="B138" s="0">
+        <v>35</v>
+      </c>
+      <c r="C138" s="0">
+        <v>139</v>
+      </c>
+      <c r="D138" s="0">
+        <v>4</v>
+      </c>
+      <c r="E138" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/32_CodebookOptionMap.xlsx
+++ b/rcads/data/xls/32_CodebookOptionMap.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_32_CodebookOptionMap"/>
   </sheets>
   <definedNames>
-    <definedName name="_32_CodebookOptionMap">'_32_CodebookOptionMap'!$A$1:$E$138</definedName>
+    <definedName name="_32_CodebookOptionMap">'_32_CodebookOptionMap'!$A$1:$E$153</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2627,10 +2627,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="0">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C134" s="0">
+        <v>144</v>
       </c>
       <c r="D134" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" s="0">
         <v>0</v>
@@ -2701,6 +2704,261 @@
         <v>4</v>
       </c>
       <c r="E138" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="0">
+        <v>138</v>
+      </c>
+      <c r="B139" s="0">
+        <v>34</v>
+      </c>
+      <c r="C139" s="0">
+        <v>133</v>
+      </c>
+      <c r="D139" s="0">
+        <v>2</v>
+      </c>
+      <c r="E139" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="0">
+        <v>139</v>
+      </c>
+      <c r="B140" s="0">
+        <v>34</v>
+      </c>
+      <c r="C140" s="0">
+        <v>134</v>
+      </c>
+      <c r="D140" s="0">
+        <v>3</v>
+      </c>
+      <c r="E140" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="0">
+        <v>140</v>
+      </c>
+      <c r="B141" s="0">
+        <v>34</v>
+      </c>
+      <c r="C141" s="0">
+        <v>135</v>
+      </c>
+      <c r="D141" s="0">
+        <v>4</v>
+      </c>
+      <c r="E141" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="0">
+        <v>141</v>
+      </c>
+      <c r="B142" s="0">
+        <v>34</v>
+      </c>
+      <c r="C142" s="0">
+        <v>132</v>
+      </c>
+      <c r="D142" s="0">
+        <v>1</v>
+      </c>
+      <c r="E142" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="0">
+        <v>142</v>
+      </c>
+      <c r="B143" s="0">
+        <v>36</v>
+      </c>
+      <c r="C143" s="0">
+        <v>140</v>
+      </c>
+      <c r="D143" s="0">
+        <v>1</v>
+      </c>
+      <c r="E143" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="0">
+        <v>143</v>
+      </c>
+      <c r="B144" s="0">
+        <v>36</v>
+      </c>
+      <c r="C144" s="0">
+        <v>141</v>
+      </c>
+      <c r="D144" s="0">
+        <v>2</v>
+      </c>
+      <c r="E144" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="0">
+        <v>144</v>
+      </c>
+      <c r="B145" s="0">
+        <v>36</v>
+      </c>
+      <c r="C145" s="0">
+        <v>142</v>
+      </c>
+      <c r="D145" s="0">
+        <v>3</v>
+      </c>
+      <c r="E145" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="0">
+        <v>145</v>
+      </c>
+      <c r="B146" s="0">
+        <v>36</v>
+      </c>
+      <c r="C146" s="0">
+        <v>143</v>
+      </c>
+      <c r="D146" s="0">
+        <v>4</v>
+      </c>
+      <c r="E146" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="0">
+        <v>146</v>
+      </c>
+      <c r="B147" s="0">
+        <v>37</v>
+      </c>
+      <c r="C147" s="0">
+        <v>145</v>
+      </c>
+      <c r="D147" s="0">
+        <v>2</v>
+      </c>
+      <c r="E147" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="0">
+        <v>147</v>
+      </c>
+      <c r="B148" s="0">
+        <v>37</v>
+      </c>
+      <c r="C148" s="0">
+        <v>146</v>
+      </c>
+      <c r="D148" s="0">
+        <v>3</v>
+      </c>
+      <c r="E148" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="0">
+        <v>148</v>
+      </c>
+      <c r="B149" s="0">
+        <v>37</v>
+      </c>
+      <c r="C149" s="0">
+        <v>147</v>
+      </c>
+      <c r="D149" s="0">
+        <v>4</v>
+      </c>
+      <c r="E149" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="0">
+        <v>149</v>
+      </c>
+      <c r="B150" s="0">
+        <v>38</v>
+      </c>
+      <c r="C150" s="0">
+        <v>148</v>
+      </c>
+      <c r="D150" s="0">
+        <v>1</v>
+      </c>
+      <c r="E150" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="151">
+      <c r="A151" s="0">
+        <v>150</v>
+      </c>
+      <c r="B151" s="0">
+        <v>38</v>
+      </c>
+      <c r="C151" s="0">
+        <v>149</v>
+      </c>
+      <c r="D151" s="0">
+        <v>2</v>
+      </c>
+      <c r="E151" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="152">
+      <c r="A152" s="0">
+        <v>151</v>
+      </c>
+      <c r="B152" s="0">
+        <v>38</v>
+      </c>
+      <c r="C152" s="0">
+        <v>150</v>
+      </c>
+      <c r="D152" s="0">
+        <v>3</v>
+      </c>
+      <c r="E152" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="153">
+      <c r="A153" s="0">
+        <v>152</v>
+      </c>
+      <c r="B153" s="0">
+        <v>38</v>
+      </c>
+      <c r="C153" s="0">
+        <v>151</v>
+      </c>
+      <c r="D153" s="0">
+        <v>4</v>
+      </c>
+      <c r="E153" s="0">
         <v>3</v>
       </c>
     </row>
